--- a/biology/Histoire de la zoologie et de la botanique/William_Healey_Dall/William_Healey_Dall.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Healey_Dall/William_Healey_Dall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Healey Dall est un naturaliste, un malacologiste et un paléontologue américain, né le 21 août 1845 à Boston et mort le 27 mars 1927 à Washington, D.C..
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Charles Henry Appleton Dall, un prêtre unitarien et de Catherine Wells Healey Dall. Il est fait ses études à Boston puis à Harvard sous la direction de Louis Agassiz (1807-1873) et de Jeffries Wyman (1814-1874) où il se consacre à l’anatomie, la médecine et les mollusques. Ses études sont interrompues par son service militaire en 1863. De 1863 à 1864, il travaille dans le service de recherche géologique dans la région du lac Supérieur.
 De 1864 à 1865, il travaille comme clerc à l’Illinois Central Railroad de Chicago et étudie, la nuit, à l’Academy of Sciences de Chicago auprès de William Stimpson (1832-1872) et de Robert Kennicott (1835-1866). Il participe comme naturaliste, de 1865 à 1868, à une expédition en Alaska, l’International Expedition. Il en prend la direction en 1866 après la mort de Robert Kennicott (1835-1866) qui la commandait. Il explore l’Alaska, les îles Aléoutiennes et la côte du Pacifique.
